--- a/3_erettsegi/3_tablazat/3_dobogoko/tura.xlsx
+++ b/3_erettsegi/3_tablazat/3_dobogoko/tura.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.programming\SZLG12F\3_erettsegi\3_tablazat\3_dobogoko\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javor_nikolett\Desktop\SZLG12F\3_erettsegi\3_tablazat\3_dobogoko\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC255A4-B47F-4143-8348-7C00C3D880E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D73F28A-A5D3-4252-8004-1A8D96CF31BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="4470" activeTab="1" xr2:uid="{20609987-8889-46EF-A8BD-D01C09956B70}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="4476" activeTab="1" xr2:uid="{20609987-8889-46EF-A8BD-D01C09956B70}"/>
   </bookViews>
   <sheets>
     <sheet name="nyomvonal" sheetId="2" r:id="rId1"/>
@@ -260,7 +260,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -292,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -306,8 +306,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -315,11 +321,17 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5036,20 +5048,20 @@
   <dimension ref="A1:F279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="4"/>
-    <col min="5" max="5" width="18.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="3" max="3" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="4"/>
+    <col min="5" max="5" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5063,3927 +5075,3927 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>18.897379999999998</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="5">
         <v>47.718828999999999</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="6">
         <v>694</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5">
         <v>18.898029999999999</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>47.718772999999999</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>694</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="5">
+      <c r="E3" s="10">
         <f>ROUNDDOWN(MIN(A2:A279),3)</f>
         <v>18.88</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="10">
         <f>ROUNDDOWN(MIN(B2:B279),3)</f>
         <v>47.718000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>18.898104</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="5">
         <v>47.718885999999998</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="6">
         <v>694</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>18.898063</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="5">
         <v>47.718935999999999</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="6">
         <v>694</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="5">
+      <c r="E5" s="10">
         <f>ROUNDUP(MAX(A2:A279),3)</f>
         <v>18.904</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="10">
         <f>ROUNDUP(MAX(B2:B279),3)</f>
         <v>47.747999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>18.898015999999998</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="5">
         <v>47.718992999999998</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>694</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>18.898111</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>47.718975999999998</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>694.2</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>18.898095999999999</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="5">
         <v>47.719088999999997</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>693.4</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="7">
+      <c r="E8" s="9">
         <f>MIN(C2:C279)</f>
         <v>199.2</v>
       </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>18.898579999999999</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="5">
         <v>47.719540000000002</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>692.6</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>18.898745000000002</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="5">
         <v>47.719844999999999</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>691</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <f>INDEX(A2:A279,MATCH($E$8,$C$2:$C$279,0))</f>
         <v>18.903051000000001</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <f>INDEX(B2:B279,MATCH($E$8,$C$2:$C$279,0))</f>
         <v>47.747450000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>18.898917000000001</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="5">
         <v>47.719830000000002</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>690.2</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>18.899228999999998</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="5">
         <v>47.719800999999997</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <v>689.2</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>18.899671999999999</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <v>47.719659</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="6">
         <v>688.4</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>18.899549</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="5">
         <v>47.719862999999997</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="6">
         <v>687.6</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>18.899467999999999</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="5">
         <v>47.719923999999999</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="6">
         <v>688</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>18.899903999999999</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="5">
         <v>47.719895999999999</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="6">
         <v>687.6</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>18.900182000000001</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="5">
         <v>47.719929</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="6">
         <v>686.8</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>18.900565</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="5">
         <v>47.720111000000003</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="6">
         <v>687.2</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>18.900593000000001</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="5">
         <v>47.720191</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="6">
         <v>681</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>18.900341999999998</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="5">
         <v>47.720216000000001</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="6">
         <v>674.4</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>18.900580000000001</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="5">
         <v>47.720391999999997</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="6">
         <v>668.8</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>18.900725999999999</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="5">
         <v>47.720590999999999</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="6">
         <v>656</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>18.901091999999998</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="5">
         <v>47.720649999999999</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="6">
         <v>642.79999999999995</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5">
         <v>18.901682000000001</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="5">
         <v>47.721142</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="6">
         <v>636.20000000000005</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
         <v>18.901738000000002</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="5">
         <v>47.721260999999998</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="6">
         <v>629.6</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
         <v>18.901965000000001</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="5">
         <v>47.721272999999997</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="6">
         <v>614</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5">
         <v>18.901958</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="5">
         <v>47.721756999999997</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="6">
         <v>600.4</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
         <v>18.902014000000001</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="5">
         <v>47.722054</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="6">
         <v>586.79999999999995</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
         <v>18.902280000000001</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="5">
         <v>47.722358</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="6">
         <v>572</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="5">
         <v>18.902577000000001</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="5">
         <v>47.722954999999999</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="6">
         <v>557.20000000000005</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="5">
         <v>18.902633000000002</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="5">
         <v>47.723233999999998</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="6">
         <v>549.20000000000005</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="5">
         <v>18.903257</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="5">
         <v>47.723475000000001</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="6">
         <v>546.79999999999995</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="5">
         <v>18.903314000000002</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="5">
         <v>47.723542999999999</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="6">
         <v>544.4</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="5">
         <v>18.902756</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="5">
         <v>47.723753000000002</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="6">
         <v>543.20000000000005</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="5">
         <v>18.90231</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="5">
         <v>47.723759000000001</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="6">
         <v>542</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="5">
         <v>18.902041000000001</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="5">
         <v>47.723711999999999</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="6">
         <v>539.20000000000005</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="5">
         <v>18.901689000000001</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="5">
         <v>47.723548999999998</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="6">
         <v>542.6</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="5">
         <v>18.901361000000001</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="5">
         <v>47.723168999999999</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="6">
         <v>545.20000000000005</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="5">
         <v>18.901177000000001</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="5">
         <v>47.723045999999997</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="6">
         <v>547.79999999999995</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="5">
         <v>18.900493000000001</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="5">
         <v>47.722810000000003</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="6">
         <v>550.4</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="5">
         <v>18.900210000000001</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="5">
         <v>47.722631999999997</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="6">
         <v>549.20000000000005</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="5">
         <v>18.900120000000001</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="5">
         <v>47.722627000000003</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="6">
         <v>541.79999999999995</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="5">
         <v>18.899982999999999</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="5">
         <v>47.722679999999997</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="6">
         <v>535.20000000000005</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="5">
         <v>18.899726000000001</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="5">
         <v>47.723205</v>
       </c>
-      <c r="C44" s="2">
+      <c r="C44" s="6">
         <v>527.20000000000005</v>
       </c>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="5">
         <v>18.899618</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="5">
         <v>47.723269000000002</v>
       </c>
-      <c r="C45" s="2">
+      <c r="C45" s="6">
         <v>521</v>
       </c>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="5">
         <v>18.899619999999999</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="5">
         <v>47.723337000000001</v>
       </c>
-      <c r="C46" s="2">
+      <c r="C46" s="6">
         <v>517.20000000000005</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="5">
         <v>18.898896000000001</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="5">
         <v>47.724153000000001</v>
       </c>
-      <c r="C47" s="2">
+      <c r="C47" s="6">
         <v>512.4</v>
       </c>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="5">
         <v>18.898557</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="5">
         <v>47.724437999999999</v>
       </c>
-      <c r="C48" s="2">
+      <c r="C48" s="6">
         <v>507.6</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="5">
         <v>18.898119000000001</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="5">
         <v>47.724727000000001</v>
       </c>
-      <c r="C49" s="2">
+      <c r="C49" s="6">
         <v>505.6</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="5">
         <v>18.897836999999999</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="5">
         <v>47.724736</v>
       </c>
-      <c r="C50" s="2">
+      <c r="C50" s="6">
         <v>501.8</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="5">
         <v>18.897220000000001</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="5">
         <v>47.72486</v>
       </c>
-      <c r="C51" s="2">
+      <c r="C51" s="6">
         <v>500.4</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="5">
         <v>18.896788999999998</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="5">
         <v>47.725029999999997</v>
       </c>
-      <c r="C52" s="2">
+      <c r="C52" s="6">
         <v>500</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="5">
         <v>18.896722</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="5">
         <v>47.725113999999998</v>
       </c>
-      <c r="C53" s="2">
+      <c r="C53" s="6">
         <v>497.8</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="5">
         <v>18.896657999999999</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="5">
         <v>47.725895999999999</v>
       </c>
-      <c r="C54" s="2">
+      <c r="C54" s="6">
         <v>496.4</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="5">
         <v>18.896667000000001</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="5">
         <v>47.726208</v>
       </c>
-      <c r="C55" s="2">
+      <c r="C55" s="6">
         <v>495</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="5">
         <v>18.896543000000001</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="5">
         <v>47.726394999999997</v>
       </c>
-      <c r="C56" s="2">
+      <c r="C56" s="6">
         <v>489.8</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="5">
         <v>18.896103</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="5">
         <v>47.726624000000001</v>
       </c>
-      <c r="C57" s="2">
+      <c r="C57" s="6">
         <v>484.6</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="5">
         <v>18.895790999999999</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="5">
         <v>47.726956999999999</v>
       </c>
-      <c r="C58" s="2">
+      <c r="C58" s="6">
         <v>480.6</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="5">
         <v>18.895631000000002</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="5">
         <v>47.727325999999998</v>
       </c>
-      <c r="C59" s="2">
+      <c r="C59" s="6">
         <v>474.4</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="5">
         <v>18.895510000000002</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="5">
         <v>47.727342</v>
       </c>
-      <c r="C60" s="2">
+      <c r="C60" s="6">
         <v>468.2</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="5">
         <v>18.895322</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="5">
         <v>47.728033000000003</v>
       </c>
-      <c r="C61" s="2">
+      <c r="C61" s="6">
         <v>467.6</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="5">
         <v>18.895188000000001</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="5">
         <v>47.728045000000002</v>
       </c>
-      <c r="C62" s="2">
+      <c r="C62" s="6">
         <v>469.6</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="5">
         <v>18.894838</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="5">
         <v>47.728329000000002</v>
       </c>
-      <c r="C63" s="2">
+      <c r="C63" s="6">
         <v>472.2</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="5">
         <v>18.894690000000001</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="5">
         <v>47.728352000000001</v>
       </c>
-      <c r="C64" s="2">
+      <c r="C64" s="6">
         <v>472.8</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="5">
         <v>18.894428999999999</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="5">
         <v>47.728265999999998</v>
       </c>
-      <c r="C65" s="2">
+      <c r="C65" s="6">
         <v>473.4</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="5">
         <v>18.894248999999999</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="5">
         <v>47.728592999999996</v>
       </c>
-      <c r="C66" s="2">
+      <c r="C66" s="6">
         <v>474</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="5">
         <v>18.894120999999998</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="5">
         <v>47.729247000000001</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C67" s="6">
         <v>471.8</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="5">
         <v>18.894145000000002</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="5">
         <v>47.729393999999999</v>
       </c>
-      <c r="C68" s="2">
+      <c r="C68" s="6">
         <v>469.6</v>
       </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="5">
         <v>18.893902000000001</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="5">
         <v>47.729498</v>
       </c>
-      <c r="C69" s="2">
+      <c r="C69" s="6">
         <v>469.4</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="5">
         <v>18.893374999999999</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="5">
         <v>47.729723</v>
       </c>
-      <c r="C70" s="2">
+      <c r="C70" s="6">
         <v>469.2</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="5">
         <v>18.893167999999999</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="5">
         <v>47.729897999999999</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C71" s="6">
         <v>469</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="5">
         <v>18.893177000000001</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="5">
         <v>47.730117999999997</v>
       </c>
-      <c r="C72" s="2">
+      <c r="C72" s="6">
         <v>467</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="5">
         <v>18.893286</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="5">
         <v>47.730229000000001</v>
       </c>
-      <c r="C73" s="2">
+      <c r="C73" s="6">
         <v>464.2</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="5">
         <v>18.893471999999999</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="5">
         <v>47.730286999999997</v>
       </c>
-      <c r="C74" s="2">
+      <c r="C74" s="6">
         <v>461.4</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="5">
         <v>18.893937000000001</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="5">
         <v>47.730316000000002</v>
       </c>
-      <c r="C75" s="2">
+      <c r="C75" s="6">
         <v>458.6</v>
       </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="5">
         <v>18.894705999999999</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="5">
         <v>47.730614000000003</v>
       </c>
-      <c r="C76" s="2">
+      <c r="C76" s="6">
         <v>457.4</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="5">
         <v>18.894223</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="5">
         <v>47.730901000000003</v>
       </c>
-      <c r="C77" s="2">
+      <c r="C77" s="6">
         <v>457.6</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="5">
         <v>18.894815999999999</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="5">
         <v>47.731150999999997</v>
       </c>
-      <c r="C78" s="2">
+      <c r="C78" s="6">
         <v>458.6</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="5">
         <v>18.894711999999998</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="5">
         <v>47.731366999999999</v>
       </c>
-      <c r="C79" s="2">
+      <c r="C79" s="6">
         <v>459</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="5">
         <v>18.894393999999998</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="5">
         <v>47.731625000000001</v>
       </c>
-      <c r="C80" s="2">
+      <c r="C80" s="6">
         <v>459.4</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="5">
         <v>18.894245999999999</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="5">
         <v>47.731997999999997</v>
       </c>
-      <c r="C81" s="2">
+      <c r="C81" s="6">
         <v>457</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="5">
         <v>18.893682999999999</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="5">
         <v>47.732382999999999</v>
       </c>
-      <c r="C82" s="2">
+      <c r="C82" s="6">
         <v>450.6</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="5">
         <v>18.893346999999999</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="5">
         <v>47.732767000000003</v>
       </c>
-      <c r="C83" s="2">
+      <c r="C83" s="6">
         <v>444.2</v>
       </c>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="5">
         <v>18.892676999999999</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="5">
         <v>47.732742000000002</v>
       </c>
-      <c r="C84" s="2">
+      <c r="C84" s="6">
         <v>436.4</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="5">
         <v>18.892063</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="5">
         <v>47.732945000000001</v>
       </c>
-      <c r="C85" s="2">
+      <c r="C85" s="6">
         <v>426.6</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="5">
         <v>18.891537</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="5">
         <v>47.732954999999997</v>
       </c>
-      <c r="C86" s="2">
+      <c r="C86" s="6">
         <v>418</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="5">
         <v>18.890619999999998</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="5">
         <v>47.733673000000003</v>
       </c>
-      <c r="C87" s="2">
+      <c r="C87" s="6">
         <v>414.6</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="5">
         <v>18.890332000000001</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="5">
         <v>47.734096000000001</v>
       </c>
-      <c r="C88" s="2">
+      <c r="C88" s="6">
         <v>411.2</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="5">
         <v>18.890167000000002</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="5">
         <v>47.734526000000002</v>
       </c>
-      <c r="C89" s="2">
+      <c r="C89" s="6">
         <v>409.8</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="5">
         <v>18.889551999999998</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="5">
         <v>47.734985000000002</v>
       </c>
-      <c r="C90" s="2">
+      <c r="C90" s="6">
         <v>411.8</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="5">
         <v>18.889071999999999</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="5">
         <v>47.735216000000001</v>
       </c>
-      <c r="C91" s="2">
+      <c r="C91" s="6">
         <v>413.2</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="5">
         <v>18.887948000000002</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="5">
         <v>47.735560999999997</v>
       </c>
-      <c r="C92" s="2">
+      <c r="C92" s="6">
         <v>415.4</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="5">
         <v>18.887824999999999</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="5">
         <v>47.735740999999997</v>
       </c>
-      <c r="C93" s="2">
+      <c r="C93" s="6">
         <v>417.6</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="5">
         <v>18.887146000000001</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="5">
         <v>47.7363</v>
       </c>
-      <c r="C94" s="2">
+      <c r="C94" s="6">
         <v>418.8</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="5">
         <v>18.886568</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="5">
         <v>47.736818999999997</v>
       </c>
-      <c r="C95" s="2">
+      <c r="C95" s="6">
         <v>418.6</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="5">
         <v>18.887069</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="5">
         <v>47.736854999999998</v>
       </c>
-      <c r="C96" s="2">
+      <c r="C96" s="6">
         <v>416.8</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="5">
         <v>18.888189000000001</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="5">
         <v>47.737133999999998</v>
       </c>
-      <c r="C97" s="2">
+      <c r="C97" s="6">
         <v>411.6</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="5">
         <v>18.888323</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="5">
         <v>47.737170999999996</v>
       </c>
-      <c r="C98" s="2">
+      <c r="C98" s="6">
         <v>406.4</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="5">
         <v>18.888936000000001</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="5">
         <v>47.737591000000002</v>
       </c>
-      <c r="C99" s="2">
+      <c r="C99" s="6">
         <v>399.2</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="5">
         <v>18.890039999999999</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="5">
         <v>47.737769</v>
       </c>
-      <c r="C100" s="2">
+      <c r="C100" s="6">
         <v>392</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="5">
         <v>18.890391999999999</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="5">
         <v>47.737780000000001</v>
       </c>
-      <c r="C101" s="2">
+      <c r="C101" s="6">
         <v>387</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="5">
         <v>18.891332999999999</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="5">
         <v>47.737394000000002</v>
       </c>
-      <c r="C102" s="2">
+      <c r="C102" s="6">
         <v>381.4</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="5">
         <v>18.891817</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="5">
         <v>47.737397000000001</v>
       </c>
-      <c r="C103" s="2">
+      <c r="C103" s="6">
         <v>376.4</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="5">
         <v>18.892029000000001</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="5">
         <v>47.737490999999999</v>
       </c>
-      <c r="C104" s="2">
+      <c r="C104" s="6">
         <v>373.8</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="5">
         <v>18.892244999999999</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="5">
         <v>47.737845</v>
       </c>
-      <c r="C105" s="2">
+      <c r="C105" s="6">
         <v>371.2</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="5">
         <v>18.892365000000002</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="5">
         <v>47.738326000000001</v>
       </c>
-      <c r="C106" s="2">
+      <c r="C106" s="6">
         <v>366.8</v>
       </c>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="5">
         <v>18.892398</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="5">
         <v>47.738995000000003</v>
       </c>
-      <c r="C107" s="2">
+      <c r="C107" s="6">
         <v>365</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="5">
         <v>18.892393999999999</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="5">
         <v>47.739314</v>
       </c>
-      <c r="C108" s="2">
+      <c r="C108" s="6">
         <v>361.6</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="5">
         <v>18.892327000000002</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="5">
         <v>47.739739</v>
       </c>
-      <c r="C109" s="2">
+      <c r="C109" s="6">
         <v>357.4</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="5">
         <v>18.892365000000002</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="5">
         <v>47.740139999999997</v>
       </c>
-      <c r="C110" s="2">
+      <c r="C110" s="6">
         <v>351.4</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="5">
         <v>18.891759</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="5">
         <v>47.740837999999997</v>
       </c>
-      <c r="C111" s="2">
+      <c r="C111" s="6">
         <v>347.8</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" s="3"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="5">
         <v>18.890291000000001</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="5">
         <v>47.742023000000003</v>
       </c>
-      <c r="C112" s="2">
+      <c r="C112" s="6">
         <v>344.2</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="5">
         <v>18.889907000000001</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="5">
         <v>47.742178000000003</v>
       </c>
-      <c r="C113" s="2">
+      <c r="C113" s="6">
         <v>341.6</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="5">
         <v>18.889569000000002</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="5">
         <v>47.742429999999999</v>
       </c>
-      <c r="C114" s="2">
+      <c r="C114" s="6">
         <v>336.4</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="5">
         <v>18.889496999999999</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="5">
         <v>47.742682000000002</v>
       </c>
-      <c r="C115" s="2">
+      <c r="C115" s="6">
         <v>333</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" s="3"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="5">
         <v>18.88954</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="5">
         <v>47.742812000000001</v>
       </c>
-      <c r="C116" s="2">
+      <c r="C116" s="6">
         <v>329</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="5">
         <v>18.889641000000001</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="5">
         <v>47.743115000000003</v>
       </c>
-      <c r="C117" s="2">
+      <c r="C117" s="6">
         <v>319.60000000000002</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="5">
         <v>18.889931000000001</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="5">
         <v>47.743380999999999</v>
       </c>
-      <c r="C118" s="2">
+      <c r="C118" s="6">
         <v>312.2</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="5">
         <v>18.890398000000001</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="5">
         <v>47.743530999999997</v>
       </c>
-      <c r="C119" s="2">
+      <c r="C119" s="6">
         <v>308.8</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="5">
         <v>18.890488999999999</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="5">
         <v>47.743777999999999</v>
       </c>
-      <c r="C120" s="2">
+      <c r="C120" s="6">
         <v>305.39999999999998</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="5">
         <v>18.890329000000001</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="5">
         <v>47.744041000000003</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C121" s="6">
         <v>302</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="5">
         <v>18.890352</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="5">
         <v>47.744183999999997</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C122" s="6">
         <v>304.60000000000002</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="5">
         <v>18.890291999999999</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="5">
         <v>47.744290999999997</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C123" s="6">
         <v>305.39999999999998</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="5">
         <v>18.890111000000001</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="5">
         <v>47.744387000000003</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C124" s="6">
         <v>306.2</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="5">
         <v>18.889219000000001</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="5">
         <v>47.744287</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C125" s="6">
         <v>304.60000000000002</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="5">
         <v>18.888718999999998</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="5">
         <v>47.744399000000001</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C126" s="6">
         <v>301.2</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="5">
         <v>18.888625000000001</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="5">
         <v>47.744472999999999</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C127" s="6">
         <v>297.2</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="5">
         <v>18.888681999999999</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="5">
         <v>47.744588999999998</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C128" s="6">
         <v>291.60000000000002</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="5">
         <v>18.888926999999999</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="5">
         <v>47.744729999999997</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C129" s="6">
         <v>283.8</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="5">
         <v>18.889250000000001</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="5">
         <v>47.744824999999999</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C130" s="6">
         <v>278.39999999999998</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="5">
         <v>18.890339999999998</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="5">
         <v>47.745012000000003</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C131" s="6">
         <v>274.39999999999998</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" s="3"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="5">
         <v>18.891739000000001</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="5">
         <v>47.744779000000001</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C132" s="6">
         <v>270.39999999999998</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" s="3"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="5">
         <v>18.892009000000002</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="5">
         <v>47.744677000000003</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C133" s="6">
         <v>265.8</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="5">
         <v>18.892527999999999</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="5">
         <v>47.744633</v>
       </c>
-      <c r="C134" s="2">
+      <c r="C134" s="6">
         <v>263.39999999999998</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="5">
         <v>18.892758000000001</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="5">
         <v>47.744734999999999</v>
       </c>
-      <c r="C135" s="2">
+      <c r="C135" s="6">
         <v>261.39999999999998</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="5">
         <v>18.894204999999999</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="5">
         <v>47.745001999999999</v>
       </c>
-      <c r="C136" s="2">
+      <c r="C136" s="6">
         <v>259.8</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" s="3"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="5">
         <v>18.894371</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="5">
         <v>47.745128999999999</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C137" s="6">
         <v>254.6</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="5">
         <v>18.894770999999999</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="5">
         <v>47.745190000000001</v>
       </c>
-      <c r="C138" s="2">
+      <c r="C138" s="6">
         <v>249.8</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="5">
         <v>18.895249</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="5">
         <v>47.745334999999997</v>
       </c>
-      <c r="C139" s="2">
+      <c r="C139" s="6">
         <v>243.8</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="5">
         <v>18.896132000000001</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="5">
         <v>47.745601999999998</v>
       </c>
-      <c r="C140" s="2">
+      <c r="C140" s="6">
         <v>237.4</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" s="3"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="5">
         <v>18.896867</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="5">
         <v>47.745618999999998</v>
       </c>
-      <c r="C141" s="2">
+      <c r="C141" s="6">
         <v>231</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="5">
         <v>18.897145999999999</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="5">
         <v>47.745663999999998</v>
       </c>
-      <c r="C142" s="2">
+      <c r="C142" s="6">
         <v>228</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="5">
         <v>18.897545000000001</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="5">
         <v>47.745542999999998</v>
       </c>
-      <c r="C143" s="2">
+      <c r="C143" s="6">
         <v>226.6</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="5">
         <v>18.8978</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="5">
         <v>47.745564999999999</v>
       </c>
-      <c r="C144" s="2">
+      <c r="C144" s="6">
         <v>226</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
       <c r="F144" s="3"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="5">
         <v>18.898339</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="5">
         <v>47.745811000000003</v>
       </c>
-      <c r="C145" s="2">
+      <c r="C145" s="6">
         <v>225.4</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
       <c r="F145" s="3"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="5">
         <v>18.898488</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="5">
         <v>47.745818</v>
       </c>
-      <c r="C146" s="2">
+      <c r="C146" s="6">
         <v>225.8</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="5">
         <v>18.898833</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="5">
         <v>47.745946000000004</v>
       </c>
-      <c r="C147" s="2">
+      <c r="C147" s="6">
         <v>222.8</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="5">
         <v>18.899360999999999</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="5">
         <v>47.745995000000001</v>
       </c>
-      <c r="C148" s="2">
+      <c r="C148" s="6">
         <v>219.8</v>
       </c>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="5">
         <v>18.899626999999999</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="5">
         <v>47.746113999999999</v>
       </c>
-      <c r="C149" s="2">
+      <c r="C149" s="6">
         <v>217</v>
       </c>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="5">
         <v>18.899833999999998</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="5">
         <v>47.746462999999999</v>
       </c>
-      <c r="C150" s="2">
+      <c r="C150" s="6">
         <v>214.2</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="5">
         <v>18.90005</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="5">
         <v>47.746603999999998</v>
       </c>
-      <c r="C151" s="2">
+      <c r="C151" s="6">
         <v>210.8</v>
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="5">
         <v>18.900463999999999</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="5">
         <v>47.746760000000002</v>
       </c>
-      <c r="C152" s="2">
+      <c r="C152" s="6">
         <v>208</v>
       </c>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="5">
         <v>18.900587000000002</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="5">
         <v>47.746955999999997</v>
       </c>
-      <c r="C153" s="2">
+      <c r="C153" s="6">
         <v>207</v>
       </c>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="5">
         <v>18.901033000000002</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="5">
         <v>47.747298999999998</v>
       </c>
-      <c r="C154" s="2">
+      <c r="C154" s="6">
         <v>203.2</v>
       </c>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="5">
         <v>18.901989</v>
       </c>
-      <c r="B155" s="3">
+      <c r="B155" s="5">
         <v>47.747573000000003</v>
       </c>
-      <c r="C155" s="2">
+      <c r="C155" s="6">
         <v>201.4</v>
       </c>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="5">
         <v>18.903051000000001</v>
       </c>
-      <c r="B156" s="3">
+      <c r="B156" s="5">
         <v>47.747450000000001</v>
       </c>
-      <c r="C156" s="2">
+      <c r="C156" s="6">
         <v>199.2</v>
       </c>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="5">
         <v>18.902887</v>
       </c>
-      <c r="B157" s="3">
+      <c r="B157" s="5">
         <v>47.747143000000001</v>
       </c>
-      <c r="C157" s="2">
+      <c r="C157" s="6">
         <v>201</v>
       </c>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="5">
         <v>18.902884</v>
       </c>
-      <c r="B158" s="3">
+      <c r="B158" s="5">
         <v>47.746845999999998</v>
       </c>
-      <c r="C158" s="2">
+      <c r="C158" s="6">
         <v>201</v>
       </c>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="5">
         <v>18.902757999999999</v>
       </c>
-      <c r="B159" s="3">
+      <c r="B159" s="5">
         <v>47.746563000000002</v>
       </c>
-      <c r="C159" s="2">
+      <c r="C159" s="6">
         <v>205.4</v>
       </c>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="5">
         <v>18.902729000000001</v>
       </c>
-      <c r="B160" s="3">
+      <c r="B160" s="5">
         <v>47.746198999999997</v>
       </c>
-      <c r="C160" s="2">
+      <c r="C160" s="6">
         <v>208.8</v>
       </c>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="5">
         <v>18.902585999999999</v>
       </c>
-      <c r="B161" s="3">
+      <c r="B161" s="5">
         <v>47.745665000000002</v>
       </c>
-      <c r="C161" s="2">
+      <c r="C161" s="6">
         <v>211.6</v>
       </c>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="5">
         <v>18.902494999999998</v>
       </c>
-      <c r="B162" s="3">
+      <c r="B162" s="5">
         <v>47.744722000000003</v>
       </c>
-      <c r="C162" s="2">
+      <c r="C162" s="6">
         <v>213.4</v>
       </c>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="5">
         <v>18.902293</v>
       </c>
-      <c r="B163" s="3">
+      <c r="B163" s="5">
         <v>47.744549999999997</v>
       </c>
-      <c r="C163" s="2">
+      <c r="C163" s="6">
         <v>215.2</v>
       </c>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="5">
         <v>18.902083000000001</v>
       </c>
-      <c r="B164" s="3">
+      <c r="B164" s="5">
         <v>47.744169999999997</v>
       </c>
-      <c r="C164" s="2">
+      <c r="C164" s="6">
         <v>217.2</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="5">
         <v>18.901948000000001</v>
       </c>
-      <c r="B165" s="3">
+      <c r="B165" s="5">
         <v>47.744053000000001</v>
       </c>
-      <c r="C165" s="2">
+      <c r="C165" s="6">
         <v>218.2</v>
       </c>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="5">
         <v>18.901745999999999</v>
       </c>
-      <c r="B166" s="3">
+      <c r="B166" s="5">
         <v>47.743994000000001</v>
       </c>
-      <c r="C166" s="2">
+      <c r="C166" s="6">
         <v>221.6</v>
       </c>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="5">
         <v>18.901177000000001</v>
       </c>
-      <c r="B167" s="3">
+      <c r="B167" s="5">
         <v>47.743999000000002</v>
       </c>
-      <c r="C167" s="2">
+      <c r="C167" s="6">
         <v>226.4</v>
       </c>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="5">
         <v>18.900587000000002</v>
       </c>
-      <c r="B168" s="3">
+      <c r="B168" s="5">
         <v>47.744227000000002</v>
       </c>
-      <c r="C168" s="2">
+      <c r="C168" s="6">
         <v>233.2</v>
       </c>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="5">
         <v>18.899743000000001</v>
       </c>
-      <c r="B169" s="3">
+      <c r="B169" s="5">
         <v>47.744335999999997</v>
       </c>
-      <c r="C169" s="2">
+      <c r="C169" s="6">
         <v>238.4</v>
       </c>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="5">
         <v>18.899158</v>
       </c>
-      <c r="B170" s="3">
+      <c r="B170" s="5">
         <v>47.744256999999998</v>
       </c>
-      <c r="C170" s="2">
+      <c r="C170" s="6">
         <v>244.4</v>
       </c>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="5">
         <v>18.898613000000001</v>
       </c>
-      <c r="B171" s="3">
+      <c r="B171" s="5">
         <v>47.744081999999999</v>
       </c>
-      <c r="C171" s="2">
+      <c r="C171" s="6">
         <v>248.6</v>
       </c>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="5">
         <v>18.898343000000001</v>
       </c>
-      <c r="B172" s="3">
+      <c r="B172" s="5">
         <v>47.743839999999999</v>
       </c>
-      <c r="C172" s="2">
+      <c r="C172" s="6">
         <v>253</v>
       </c>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="5">
         <v>18.898343000000001</v>
       </c>
-      <c r="B173" s="3">
+      <c r="B173" s="5">
         <v>47.743360000000003</v>
       </c>
-      <c r="C173" s="2">
+      <c r="C173" s="6">
         <v>259</v>
       </c>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="5">
         <v>18.898197</v>
       </c>
-      <c r="B174" s="3">
+      <c r="B174" s="5">
         <v>47.743239000000003</v>
       </c>
-      <c r="C174" s="2">
+      <c r="C174" s="6">
         <v>267.60000000000002</v>
       </c>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="5">
         <v>18.897745</v>
       </c>
-      <c r="B175" s="3">
+      <c r="B175" s="5">
         <v>47.743091</v>
       </c>
-      <c r="C175" s="2">
+      <c r="C175" s="6">
         <v>276.60000000000002</v>
       </c>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A176" s="3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="5">
         <v>18.896657999999999</v>
       </c>
-      <c r="B176" s="3">
+      <c r="B176" s="5">
         <v>47.742612000000001</v>
       </c>
-      <c r="C176" s="2">
+      <c r="C176" s="6">
         <v>287</v>
       </c>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A177" s="3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="5">
         <v>18.895361999999999</v>
       </c>
-      <c r="B177" s="3">
+      <c r="B177" s="5">
         <v>47.742226000000002</v>
       </c>
-      <c r="C177" s="2">
+      <c r="C177" s="6">
         <v>301.8</v>
       </c>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="5">
         <v>18.894734</v>
       </c>
-      <c r="B178" s="3">
+      <c r="B178" s="5">
         <v>47.741875</v>
       </c>
-      <c r="C178" s="2">
+      <c r="C178" s="6">
         <v>314.60000000000002</v>
       </c>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="5">
         <v>18.894524000000001</v>
       </c>
-      <c r="B179" s="3">
+      <c r="B179" s="5">
         <v>47.741455999999999</v>
       </c>
-      <c r="C179" s="2">
+      <c r="C179" s="6">
         <v>324.8</v>
       </c>
       <c r="D179" s="3"/>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="5">
         <v>18.893934999999999</v>
       </c>
-      <c r="B180" s="3">
+      <c r="B180" s="5">
         <v>47.739445000000003</v>
       </c>
-      <c r="C180" s="2">
+      <c r="C180" s="6">
         <v>333.8</v>
       </c>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A181" s="3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="5">
         <v>18.893957</v>
       </c>
-      <c r="B181" s="3">
+      <c r="B181" s="5">
         <v>47.738633999999998</v>
       </c>
-      <c r="C181" s="2">
+      <c r="C181" s="6">
         <v>341.4</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="5">
         <v>18.893699000000002</v>
       </c>
-      <c r="B182" s="3">
+      <c r="B182" s="5">
         <v>47.738427000000001</v>
       </c>
-      <c r="C182" s="2">
+      <c r="C182" s="6">
         <v>343</v>
       </c>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A183" s="3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="5">
         <v>18.893847999999998</v>
       </c>
-      <c r="B183" s="3">
+      <c r="B183" s="5">
         <v>47.738273</v>
       </c>
-      <c r="C183" s="2">
+      <c r="C183" s="6">
         <v>343</v>
       </c>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A184" s="3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="5">
         <v>18.893746</v>
       </c>
-      <c r="B184" s="3">
+      <c r="B184" s="5">
         <v>47.738027000000002</v>
       </c>
-      <c r="C184" s="2">
+      <c r="C184" s="6">
         <v>345.2</v>
       </c>
       <c r="D184" s="3"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A185" s="3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="5">
         <v>18.893768000000001</v>
       </c>
-      <c r="B185" s="3">
+      <c r="B185" s="5">
         <v>47.737938</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C185" s="6">
         <v>347.4</v>
       </c>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="5">
         <v>18.893550000000001</v>
       </c>
-      <c r="B186" s="3">
+      <c r="B186" s="5">
         <v>47.737935999999998</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C186" s="6">
         <v>349.6</v>
       </c>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="5">
         <v>18.893469</v>
       </c>
-      <c r="B187" s="3">
+      <c r="B187" s="5">
         <v>47.737786</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C187" s="6">
         <v>354.6</v>
       </c>
       <c r="D187" s="3"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A188" s="3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="5">
         <v>18.893449</v>
       </c>
-      <c r="B188" s="3">
+      <c r="B188" s="5">
         <v>47.737416000000003</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C188" s="6">
         <v>362.2</v>
       </c>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A189" s="3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="5">
         <v>18.893352</v>
       </c>
-      <c r="B189" s="3">
+      <c r="B189" s="5">
         <v>47.737327000000001</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C189" s="6">
         <v>367.6</v>
       </c>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A190" s="3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="5">
         <v>18.892866000000001</v>
       </c>
-      <c r="B190" s="3">
+      <c r="B190" s="5">
         <v>47.737316</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C190" s="6">
         <v>373</v>
       </c>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A191" s="3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="5">
         <v>18.892040000000001</v>
       </c>
-      <c r="B191" s="3">
+      <c r="B191" s="5">
         <v>47.737110000000001</v>
       </c>
-      <c r="C191" s="2">
+      <c r="C191" s="6">
         <v>378.4</v>
       </c>
       <c r="D191" s="3"/>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A192" s="3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="5">
         <v>18.891918</v>
       </c>
-      <c r="B192" s="3">
+      <c r="B192" s="5">
         <v>47.737150999999997</v>
       </c>
-      <c r="C192" s="2">
+      <c r="C192" s="6">
         <v>382.6</v>
       </c>
       <c r="D192" s="3"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193" s="3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="5">
         <v>18.891877000000001</v>
       </c>
-      <c r="B193" s="3">
+      <c r="B193" s="5">
         <v>47.737118000000002</v>
       </c>
-      <c r="C193" s="2">
+      <c r="C193" s="6">
         <v>384.2</v>
       </c>
       <c r="D193" s="3"/>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194" s="3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="5">
         <v>18.891659000000001</v>
       </c>
-      <c r="B194" s="3">
+      <c r="B194" s="5">
         <v>47.73715</v>
       </c>
-      <c r="C194" s="2">
+      <c r="C194" s="6">
         <v>387</v>
       </c>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195" s="3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="5">
         <v>18.891698000000002</v>
       </c>
-      <c r="B195" s="3">
+      <c r="B195" s="5">
         <v>47.737029999999997</v>
       </c>
-      <c r="C195" s="2">
+      <c r="C195" s="6">
         <v>389.8</v>
       </c>
       <c r="D195" s="3"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196" s="3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" s="5">
         <v>18.891414000000001</v>
       </c>
-      <c r="B196" s="3">
+      <c r="B196" s="5">
         <v>47.737045000000002</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C196" s="6">
         <v>391.6</v>
       </c>
       <c r="D196" s="3"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197" s="3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" s="5">
         <v>18.891207000000001</v>
       </c>
-      <c r="B197" s="3">
+      <c r="B197" s="5">
         <v>47.736919999999998</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C197" s="6">
         <v>393</v>
       </c>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198" s="3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" s="5">
         <v>18.891006999999998</v>
       </c>
-      <c r="B198" s="3">
+      <c r="B198" s="5">
         <v>47.736998999999997</v>
       </c>
-      <c r="C198" s="2">
+      <c r="C198" s="6">
         <v>394.4</v>
       </c>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199" s="3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" s="5">
         <v>18.890623999999999</v>
       </c>
-      <c r="B199" s="3">
+      <c r="B199" s="5">
         <v>47.737130000000001</v>
       </c>
-      <c r="C199" s="2">
+      <c r="C199" s="6">
         <v>394.6</v>
       </c>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200" s="3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" s="5">
         <v>18.890239000000001</v>
       </c>
-      <c r="B200" s="3">
+      <c r="B200" s="5">
         <v>47.737274999999997</v>
       </c>
-      <c r="C200" s="2">
+      <c r="C200" s="6">
         <v>394.8</v>
       </c>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201" s="3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" s="5">
         <v>18.890205999999999</v>
       </c>
-      <c r="B201" s="3">
+      <c r="B201" s="5">
         <v>47.737302</v>
       </c>
-      <c r="C201" s="2">
+      <c r="C201" s="6">
         <v>396</v>
       </c>
       <c r="D201" s="3"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202" s="3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" s="5">
         <v>18.890134</v>
       </c>
-      <c r="B202" s="3">
+      <c r="B202" s="5">
         <v>47.737352999999999</v>
       </c>
-      <c r="C202" s="2">
+      <c r="C202" s="6">
         <v>398</v>
       </c>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203" s="3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" s="5">
         <v>18.88992</v>
       </c>
-      <c r="B203" s="3">
+      <c r="B203" s="5">
         <v>47.737406999999997</v>
       </c>
-      <c r="C203" s="2">
+      <c r="C203" s="6">
         <v>402.2</v>
       </c>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204" s="3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" s="5">
         <v>18.889890999999999</v>
       </c>
-      <c r="B204" s="3">
+      <c r="B204" s="5">
         <v>47.737346000000002</v>
       </c>
-      <c r="C204" s="2">
+      <c r="C204" s="6">
         <v>406.4</v>
       </c>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205" s="3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" s="5">
         <v>18.889555000000001</v>
       </c>
-      <c r="B205" s="3">
+      <c r="B205" s="5">
         <v>47.737386999999998</v>
       </c>
-      <c r="C205" s="2">
+      <c r="C205" s="6">
         <v>410.6</v>
       </c>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206" s="3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" s="5">
         <v>18.888472</v>
       </c>
-      <c r="B206" s="3">
+      <c r="B206" s="5">
         <v>47.737107999999999</v>
       </c>
-      <c r="C206" s="2">
+      <c r="C206" s="6">
         <v>415.8</v>
       </c>
       <c r="D206" s="3"/>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207" s="3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" s="5">
         <v>18.888323</v>
       </c>
-      <c r="B207" s="3">
+      <c r="B207" s="5">
         <v>47.737170999999996</v>
       </c>
-      <c r="C207" s="2">
+      <c r="C207" s="6">
         <v>419</v>
       </c>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208" s="3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" s="5">
         <v>18.888189000000001</v>
       </c>
-      <c r="B208" s="3">
+      <c r="B208" s="5">
         <v>47.737133999999998</v>
       </c>
-      <c r="C208" s="2">
+      <c r="C208" s="6">
         <v>420</v>
       </c>
       <c r="D208" s="3"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A209" s="3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" s="5">
         <v>18.887069</v>
       </c>
-      <c r="B209" s="3">
+      <c r="B209" s="5">
         <v>47.736854999999998</v>
       </c>
-      <c r="C209" s="2">
+      <c r="C209" s="6">
         <v>422</v>
       </c>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" s="5">
         <v>18.886568</v>
       </c>
-      <c r="B210" s="3">
+      <c r="B210" s="5">
         <v>47.736818999999997</v>
       </c>
-      <c r="C210" s="2">
+      <c r="C210" s="6">
         <v>424</v>
       </c>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" s="5">
         <v>18.886415</v>
       </c>
-      <c r="B211" s="3">
+      <c r="B211" s="5">
         <v>47.736817000000002</v>
       </c>
-      <c r="C211" s="2">
+      <c r="C211" s="6">
         <v>425</v>
       </c>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="5">
         <v>18.886082999999999</v>
       </c>
-      <c r="B212" s="3">
+      <c r="B212" s="5">
         <v>47.736761999999999</v>
       </c>
-      <c r="C212" s="2">
+      <c r="C212" s="6">
         <v>427.6</v>
       </c>
       <c r="D212" s="3"/>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="5">
         <v>18.886129</v>
       </c>
-      <c r="B213" s="3">
+      <c r="B213" s="5">
         <v>47.736566000000003</v>
       </c>
-      <c r="C213" s="2">
+      <c r="C213" s="6">
         <v>435</v>
       </c>
       <c r="D213" s="3"/>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="5">
         <v>18.885956</v>
       </c>
-      <c r="B214" s="3">
+      <c r="B214" s="5">
         <v>47.736493000000003</v>
       </c>
-      <c r="C214" s="2">
+      <c r="C214" s="6">
         <v>441.6</v>
       </c>
       <c r="D214" s="3"/>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="5">
         <v>18.885110999999998</v>
       </c>
-      <c r="B215" s="3">
+      <c r="B215" s="5">
         <v>47.736269999999998</v>
       </c>
-      <c r="C215" s="2">
+      <c r="C215" s="6">
         <v>446.4</v>
       </c>
       <c r="D215" s="3"/>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="5">
         <v>18.883779000000001</v>
       </c>
-      <c r="B216" s="3">
+      <c r="B216" s="5">
         <v>47.736147000000003</v>
       </c>
-      <c r="C216" s="2">
+      <c r="C216" s="6">
         <v>458.6</v>
       </c>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="5">
         <v>18.882742</v>
       </c>
-      <c r="B217" s="3">
+      <c r="B217" s="5">
         <v>47.735961000000003</v>
       </c>
-      <c r="C217" s="2">
+      <c r="C217" s="6">
         <v>467.2</v>
       </c>
       <c r="D217" s="3"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="5">
         <v>18.881853</v>
       </c>
-      <c r="B218" s="3">
+      <c r="B218" s="5">
         <v>47.735626000000003</v>
       </c>
-      <c r="C218" s="2">
+      <c r="C218" s="6">
         <v>474.6</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="5">
         <v>18.881353000000001</v>
       </c>
-      <c r="B219" s="3">
+      <c r="B219" s="5">
         <v>47.735275000000001</v>
       </c>
-      <c r="C219" s="2">
+      <c r="C219" s="6">
         <v>485.4</v>
       </c>
       <c r="D219" s="3"/>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="5">
         <v>18.880953999999999</v>
       </c>
-      <c r="B220" s="3">
+      <c r="B220" s="5">
         <v>47.734687000000001</v>
       </c>
-      <c r="C220" s="2">
+      <c r="C220" s="6">
         <v>499.6</v>
       </c>
       <c r="D220" s="3"/>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="5">
         <v>18.880759000000001</v>
       </c>
-      <c r="B221" s="3">
+      <c r="B221" s="5">
         <v>47.733786000000002</v>
       </c>
-      <c r="C221" s="2">
+      <c r="C221" s="6">
         <v>510.2</v>
       </c>
       <c r="D221" s="3"/>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="5">
         <v>18.880803</v>
       </c>
-      <c r="B222" s="3">
+      <c r="B222" s="5">
         <v>47.733719999999998</v>
       </c>
-      <c r="C222" s="2">
+      <c r="C222" s="6">
         <v>526.4</v>
       </c>
       <c r="D222" s="3"/>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A223" s="3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="5">
         <v>18.881086</v>
       </c>
-      <c r="B223" s="3">
+      <c r="B223" s="5">
         <v>47.732726</v>
       </c>
-      <c r="C223" s="2">
+      <c r="C223" s="6">
         <v>538.20000000000005</v>
       </c>
       <c r="D223" s="3"/>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A224" s="3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="5">
         <v>18.881497</v>
       </c>
-      <c r="B224" s="3">
+      <c r="B224" s="5">
         <v>47.731777999999998</v>
       </c>
-      <c r="C224" s="2">
+      <c r="C224" s="6">
         <v>551</v>
       </c>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
       <c r="F224" s="3"/>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A225" s="3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="5">
         <v>18.882587000000001</v>
       </c>
-      <c r="B225" s="3">
+      <c r="B225" s="5">
         <v>47.730677999999997</v>
       </c>
-      <c r="C225" s="2">
+      <c r="C225" s="6">
         <v>566</v>
       </c>
       <c r="D225" s="3"/>
       <c r="E225" s="3"/>
       <c r="F225" s="3"/>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" s="3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="5">
         <v>18.882919999999999</v>
       </c>
-      <c r="B226" s="3">
+      <c r="B226" s="5">
         <v>47.730491000000001</v>
       </c>
-      <c r="C226" s="2">
+      <c r="C226" s="6">
         <v>577.20000000000005</v>
       </c>
       <c r="D226" s="3"/>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" s="3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="5">
         <v>18.884231</v>
       </c>
-      <c r="B227" s="3">
+      <c r="B227" s="5">
         <v>47.729627000000001</v>
       </c>
-      <c r="C227" s="2">
+      <c r="C227" s="6">
         <v>586.6</v>
       </c>
       <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A228" s="3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="5">
         <v>18.884314</v>
       </c>
-      <c r="B228" s="3">
+      <c r="B228" s="5">
         <v>47.729382000000001</v>
       </c>
-      <c r="C228" s="2">
+      <c r="C228" s="6">
         <v>600</v>
       </c>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" s="3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" s="5">
         <v>18.884163000000001</v>
       </c>
-      <c r="B229" s="3">
+      <c r="B229" s="5">
         <v>47.72907</v>
       </c>
-      <c r="C229" s="2">
+      <c r="C229" s="6">
         <v>608.79999999999995</v>
       </c>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A230" s="3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" s="5">
         <v>18.884191000000001</v>
       </c>
-      <c r="B230" s="3">
+      <c r="B230" s="5">
         <v>47.728695999999999</v>
       </c>
-      <c r="C230" s="2">
+      <c r="C230" s="6">
         <v>619.4</v>
       </c>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A231" s="3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" s="5">
         <v>18.884732</v>
       </c>
-      <c r="B231" s="3">
+      <c r="B231" s="5">
         <v>47.727704000000003</v>
       </c>
-      <c r="C231" s="2">
+      <c r="C231" s="6">
         <v>630</v>
       </c>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A232" s="3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" s="5">
         <v>18.885335999999999</v>
       </c>
-      <c r="B232" s="3">
+      <c r="B232" s="5">
         <v>47.727238999999997</v>
       </c>
-      <c r="C232" s="2">
+      <c r="C232" s="6">
         <v>638.79999999999995</v>
       </c>
       <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A233" s="3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" s="5">
         <v>18.885598999999999</v>
       </c>
-      <c r="B233" s="3">
+      <c r="B233" s="5">
         <v>47.726723</v>
       </c>
-      <c r="C233" s="2">
+      <c r="C233" s="6">
         <v>649.79999999999995</v>
       </c>
       <c r="D233" s="3"/>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A234" s="3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" s="5">
         <v>18.885411000000001</v>
       </c>
-      <c r="B234" s="3">
+      <c r="B234" s="5">
         <v>47.726509</v>
       </c>
-      <c r="C234" s="2">
+      <c r="C234" s="6">
         <v>659</v>
       </c>
       <c r="D234" s="3"/>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A235" s="3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" s="5">
         <v>18.885338000000001</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B235" s="5">
         <v>47.726191</v>
       </c>
-      <c r="C235" s="2">
+      <c r="C235" s="6">
         <v>666.8</v>
       </c>
       <c r="D235" s="3"/>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A236" s="3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" s="5">
         <v>18.887775999999999</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B236" s="5">
         <v>47.724884000000003</v>
       </c>
-      <c r="C236" s="2">
+      <c r="C236" s="6">
         <v>673</v>
       </c>
       <c r="D236" s="3"/>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A237" s="3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" s="5">
         <v>18.888176000000001</v>
       </c>
-      <c r="B237" s="3">
+      <c r="B237" s="5">
         <v>47.724739</v>
       </c>
-      <c r="C237" s="2">
+      <c r="C237" s="6">
         <v>679.2</v>
       </c>
       <c r="D237" s="3"/>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" s="5">
         <v>18.888517</v>
       </c>
-      <c r="B238" s="3">
+      <c r="B238" s="5">
         <v>47.724502000000001</v>
       </c>
-      <c r="C238" s="2">
+      <c r="C238" s="6">
         <v>683</v>
       </c>
       <c r="D238" s="3"/>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A239" s="3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" s="5">
         <v>18.888915000000001</v>
       </c>
-      <c r="B239" s="3">
+      <c r="B239" s="5">
         <v>47.724069</v>
       </c>
-      <c r="C239" s="2">
+      <c r="C239" s="6">
         <v>687.6</v>
       </c>
       <c r="D239" s="3"/>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A240" s="3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" s="5">
         <v>18.889150000000001</v>
       </c>
-      <c r="B240" s="3">
+      <c r="B240" s="5">
         <v>47.723793999999998</v>
       </c>
-      <c r="C240" s="2">
+      <c r="C240" s="6">
         <v>686</v>
       </c>
       <c r="D240" s="3"/>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A241" s="3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" s="5">
         <v>18.889561</v>
       </c>
-      <c r="B241" s="3">
+      <c r="B241" s="5">
         <v>47.723520999999998</v>
       </c>
-      <c r="C241" s="2">
+      <c r="C241" s="6">
         <v>686</v>
       </c>
       <c r="D241" s="3"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A242" s="3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" s="5">
         <v>18.890162</v>
       </c>
-      <c r="B242" s="3">
+      <c r="B242" s="5">
         <v>47.723149999999997</v>
       </c>
-      <c r="C242" s="2">
+      <c r="C242" s="6">
         <v>686</v>
       </c>
       <c r="D242" s="3"/>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A243" s="3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="5">
         <v>18.890557999999999</v>
       </c>
-      <c r="B243" s="3">
+      <c r="B243" s="5">
         <v>47.722974000000001</v>
       </c>
-      <c r="C243" s="2">
+      <c r="C243" s="6">
         <v>685.2</v>
       </c>
       <c r="D243" s="3"/>
       <c r="E243" s="3"/>
       <c r="F243" s="3"/>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A244" s="3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="5">
         <v>18.890813000000001</v>
       </c>
-      <c r="B244" s="3">
+      <c r="B244" s="5">
         <v>47.722977</v>
       </c>
-      <c r="C244" s="2">
+      <c r="C244" s="6">
         <v>685.4</v>
       </c>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
       <c r="F244" s="3"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A245" s="3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="5">
         <v>18.891231999999999</v>
       </c>
-      <c r="B245" s="3">
+      <c r="B245" s="5">
         <v>47.723094000000003</v>
       </c>
-      <c r="C245" s="2">
+      <c r="C245" s="6">
         <v>687.6</v>
       </c>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
       <c r="F245" s="3"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A246" s="3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="5">
         <v>18.891272000000001</v>
       </c>
-      <c r="B246" s="3">
+      <c r="B246" s="5">
         <v>47.722866000000003</v>
       </c>
-      <c r="C246" s="2">
+      <c r="C246" s="6">
         <v>691.4</v>
       </c>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A247" s="3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" s="5">
         <v>18.891376999999999</v>
       </c>
-      <c r="B247" s="3">
+      <c r="B247" s="5">
         <v>47.722363000000001</v>
       </c>
-      <c r="C247" s="2">
+      <c r="C247" s="6">
         <v>695.2</v>
       </c>
       <c r="D247" s="3"/>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A248" s="3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="5">
         <v>18.891338999999999</v>
       </c>
-      <c r="B248" s="3">
+      <c r="B248" s="5">
         <v>47.722115000000002</v>
       </c>
-      <c r="C248" s="2">
+      <c r="C248" s="6">
         <v>696.8</v>
       </c>
       <c r="D248" s="3"/>
       <c r="E248" s="3"/>
       <c r="F248" s="3"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A249" s="3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="5">
         <v>18.891708000000001</v>
       </c>
-      <c r="B249" s="3">
+      <c r="B249" s="5">
         <v>47.721736999999997</v>
       </c>
-      <c r="C249" s="2">
+      <c r="C249" s="6">
         <v>698.2</v>
       </c>
       <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A250" s="3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" s="5">
         <v>18.891544</v>
       </c>
-      <c r="B250" s="3">
+      <c r="B250" s="5">
         <v>47.721572999999999</v>
       </c>
-      <c r="C250" s="2">
+      <c r="C250" s="6">
         <v>699.4</v>
       </c>
       <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A251" s="3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" s="5">
         <v>18.891514000000001</v>
       </c>
-      <c r="B251" s="3">
+      <c r="B251" s="5">
         <v>47.721505000000001</v>
       </c>
-      <c r="C251" s="2">
+      <c r="C251" s="6">
         <v>698.6</v>
       </c>
       <c r="D251" s="3"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A252" s="3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" s="5">
         <v>18.891665</v>
       </c>
-      <c r="B252" s="3">
+      <c r="B252" s="5">
         <v>47.721196999999997</v>
       </c>
-      <c r="C252" s="2">
+      <c r="C252" s="6">
         <v>697.8</v>
       </c>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A253" s="3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="5">
         <v>18.892721999999999</v>
       </c>
-      <c r="B253" s="3">
+      <c r="B253" s="5">
         <v>47.720754999999997</v>
       </c>
-      <c r="C253" s="2">
+      <c r="C253" s="6">
         <v>697</v>
       </c>
       <c r="D253" s="3"/>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A254" s="3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="5">
         <v>18.892961</v>
       </c>
-      <c r="B254" s="3">
+      <c r="B254" s="5">
         <v>47.720745000000001</v>
       </c>
-      <c r="C254" s="2">
+      <c r="C254" s="6">
         <v>696.4</v>
       </c>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A255" s="3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" s="5">
         <v>18.893194999999999</v>
       </c>
-      <c r="B255" s="3">
+      <c r="B255" s="5">
         <v>47.720618000000002</v>
       </c>
-      <c r="C255" s="2">
+      <c r="C255" s="6">
         <v>696.2</v>
       </c>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A256" s="3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" s="5">
         <v>18.893353999999999</v>
       </c>
-      <c r="B256" s="3">
+      <c r="B256" s="5">
         <v>47.720543999999997</v>
       </c>
-      <c r="C256" s="2">
+      <c r="C256" s="6">
         <v>696.4</v>
       </c>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A257" s="3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" s="5">
         <v>18.89349</v>
       </c>
-      <c r="B257" s="3">
+      <c r="B257" s="5">
         <v>47.720467999999997</v>
       </c>
-      <c r="C257" s="2">
+      <c r="C257" s="6">
         <v>697</v>
       </c>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A258" s="3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" s="5">
         <v>18.893975999999999</v>
       </c>
-      <c r="B258" s="3">
+      <c r="B258" s="5">
         <v>47.720284999999997</v>
       </c>
-      <c r="C258" s="2">
+      <c r="C258" s="6">
         <v>696.8</v>
       </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A259" s="3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" s="5">
         <v>18.894411999999999</v>
       </c>
-      <c r="B259" s="3">
+      <c r="B259" s="5">
         <v>47.720157</v>
       </c>
-      <c r="C259" s="2">
+      <c r="C259" s="6">
         <v>696.6</v>
       </c>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A260" s="3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" s="5">
         <v>18.895081000000001</v>
       </c>
-      <c r="B260" s="3">
+      <c r="B260" s="5">
         <v>47.720077000000003</v>
       </c>
-      <c r="C260" s="2">
+      <c r="C260" s="6">
         <v>696</v>
       </c>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A261" s="3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" s="5">
         <v>18.895505</v>
       </c>
-      <c r="B261" s="3">
+      <c r="B261" s="5">
         <v>47.719898000000001</v>
       </c>
-      <c r="C261" s="2">
+      <c r="C261" s="6">
         <v>696</v>
       </c>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A262" s="3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" s="5">
         <v>18.895886999999998</v>
       </c>
-      <c r="B262" s="3">
+      <c r="B262" s="5">
         <v>47.719709999999999</v>
       </c>
-      <c r="C262" s="2">
+      <c r="C262" s="6">
         <v>695.6</v>
       </c>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A263" s="3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" s="5">
         <v>18.896657000000001</v>
       </c>
-      <c r="B263" s="3">
+      <c r="B263" s="5">
         <v>47.719701999999998</v>
       </c>
-      <c r="C263" s="2">
+      <c r="C263" s="6">
         <v>695.6</v>
       </c>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A264" s="3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" s="5">
         <v>18.897335000000002</v>
       </c>
-      <c r="B264" s="3">
+      <c r="B264" s="5">
         <v>47.719892999999999</v>
       </c>
-      <c r="C264" s="2">
+      <c r="C264" s="6">
         <v>695.6</v>
       </c>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A265" s="3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" s="5">
         <v>18.897722999999999</v>
       </c>
-      <c r="B265" s="3">
+      <c r="B265" s="5">
         <v>47.719856999999998</v>
       </c>
-      <c r="C265" s="2">
+      <c r="C265" s="6">
         <v>695.6</v>
       </c>
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A266" s="3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" s="5">
         <v>18.898191000000001</v>
       </c>
-      <c r="B266" s="3">
+      <c r="B266" s="5">
         <v>47.719799000000002</v>
       </c>
-      <c r="C266" s="2">
+      <c r="C266" s="6">
         <v>695</v>
       </c>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A267" s="3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" s="5">
         <v>18.898745000000002</v>
       </c>
-      <c r="B267" s="3">
+      <c r="B267" s="5">
         <v>47.719844999999999</v>
       </c>
-      <c r="C267" s="2">
+      <c r="C267" s="6">
         <v>694.4</v>
       </c>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" s="5">
         <v>18.898579999999999</v>
       </c>
-      <c r="B268" s="3">
+      <c r="B268" s="5">
         <v>47.719540000000002</v>
       </c>
-      <c r="C268" s="2">
+      <c r="C268" s="6">
         <v>694.2</v>
       </c>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A269" s="3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" s="5">
         <v>18.898095999999999</v>
       </c>
-      <c r="B269" s="3">
+      <c r="B269" s="5">
         <v>47.719088999999997</v>
       </c>
-      <c r="C269" s="2">
+      <c r="C269" s="6">
         <v>694</v>
       </c>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A270" s="3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" s="5">
         <v>18.898111</v>
       </c>
-      <c r="B270" s="3">
+      <c r="B270" s="5">
         <v>47.718975999999998</v>
       </c>
-      <c r="C270" s="2">
+      <c r="C270" s="6">
         <v>694</v>
       </c>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
       <c r="F270" s="3"/>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A271" s="3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" s="5">
         <v>18.898015999999998</v>
       </c>
-      <c r="B271" s="3">
+      <c r="B271" s="5">
         <v>47.718992999999998</v>
       </c>
-      <c r="C271" s="2">
+      <c r="C271" s="6">
         <v>694</v>
       </c>
       <c r="D271" s="3"/>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A272" s="3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" s="5">
         <v>18.897742999999998</v>
       </c>
-      <c r="B272" s="3">
+      <c r="B272" s="5">
         <v>47.719034999999998</v>
       </c>
-      <c r="C272" s="2">
+      <c r="C272" s="6">
         <v>694</v>
       </c>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
       <c r="F272" s="3"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A273" s="3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" s="5">
         <v>18.897411000000002</v>
       </c>
-      <c r="B273" s="3">
+      <c r="B273" s="5">
         <v>47.719082999999998</v>
       </c>
-      <c r="C273" s="2">
+      <c r="C273" s="6">
         <v>694</v>
       </c>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
       <c r="F273" s="3"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A274" s="3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" s="5">
         <v>18.896998</v>
       </c>
-      <c r="B274" s="3">
+      <c r="B274" s="5">
         <v>47.71913</v>
       </c>
-      <c r="C274" s="2">
+      <c r="C274" s="6">
         <v>694</v>
       </c>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
       <c r="F274" s="3"/>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A275" s="3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" s="5">
         <v>18.896896999999999</v>
       </c>
-      <c r="B275" s="3">
+      <c r="B275" s="5">
         <v>47.719045000000001</v>
       </c>
-      <c r="C275" s="2">
+      <c r="C275" s="6">
         <v>694</v>
       </c>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A276" s="3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" s="5">
         <v>18.896847999999999</v>
       </c>
-      <c r="B276" s="3">
+      <c r="B276" s="5">
         <v>47.719006999999998</v>
       </c>
-      <c r="C276" s="2">
+      <c r="C276" s="6">
         <v>694</v>
       </c>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A277" s="3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" s="5">
         <v>18.896771000000001</v>
       </c>
-      <c r="B277" s="3">
+      <c r="B277" s="5">
         <v>47.718966000000002</v>
       </c>
-      <c r="C277" s="2">
+      <c r="C277" s="6">
         <v>694</v>
       </c>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
       <c r="F277" s="3"/>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A278" s="3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" s="5">
         <v>18.896861999999999</v>
       </c>
-      <c r="B278" s="3">
+      <c r="B278" s="5">
         <v>47.718871999999998</v>
       </c>
-      <c r="C278" s="2">
+      <c r="C278" s="6">
         <v>694</v>
       </c>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
       <c r="F278" s="3"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A279" s="3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" s="5">
         <v>18.897171</v>
       </c>
-      <c r="B279" s="3">
+      <c r="B279" s="5">
         <v>47.718845999999999</v>
       </c>
-      <c r="C279" s="2">
+      <c r="C279" s="6">
         <v>694</v>
       </c>
       <c r="D279" s="3"/>
@@ -9010,57 +9022,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6692888-B0EE-47D5-A75A-A808E7ECABD5}">
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="82" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="8.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.44140625" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:10" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -9072,27 +9083,27 @@
       <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="7">
         <f>_xlfn.MAXIFS($A$2:$A$92,$A$2:$A$92,"&lt;="&amp;G2)</f>
         <v>1</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="7">
         <f>INDEX($B$2:$B$92,MATCH(H2,$A$2:$A$92,0))</f>
         <v>15</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="7">
         <f>ROUND(H2*100/I2,2)</f>
         <v>6.67</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>0.1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -9104,27 +9115,27 @@
       <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
         <f t="shared" ref="H3:H13" si="0">_xlfn.MAXIFS($A$2:$A$92,$A$2:$A$92,"&lt;="&amp;G3)</f>
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="7">
         <f t="shared" ref="I3:I13" si="1">INDEX($B$2:$B$92,MATCH(H3,$A$2:$A$92,0))</f>
         <v>30</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="7">
         <f t="shared" ref="J3:J13" si="2">ROUND(H3*100/I3,2)</f>
         <v>6.67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>0.1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -9136,27 +9147,27 @@
       <c r="E4" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="7">
         <f t="shared" si="2"/>
         <v>6.67</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>0.1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -9168,27 +9179,27 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="7">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="7">
         <f t="shared" si="2"/>
         <v>6.67</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>0.2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>2</v>
       </c>
       <c r="C6" t="s">
@@ -9200,27 +9211,27 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <f t="shared" si="0"/>
         <v>4.9000000000000004</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="7">
         <f t="shared" si="2"/>
         <v>6.71</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>0.2</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
@@ -9232,27 +9243,27 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="7">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="7">
         <f t="shared" si="2"/>
         <v>6.74</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>0.2</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>3</v>
       </c>
       <c r="C8" t="s">
@@ -9264,27 +9275,27 @@
       <c r="E8" t="s">
         <v>28</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="7">
         <f t="shared" si="0"/>
         <v>6.6</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="7">
         <f t="shared" si="2"/>
         <v>6.6</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>0.2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>3</v>
       </c>
       <c r="C9" t="s">
@@ -9293,27 +9304,27 @@
       <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="7">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="7">
         <f t="shared" si="2"/>
         <v>6.67</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>0.3</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>4</v>
       </c>
       <c r="C10" t="s">
@@ -9325,27 +9336,27 @@
       <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <v>9</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="7">
         <f t="shared" si="0"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="7">
         <f t="shared" si="1"/>
         <v>132</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="7">
         <f t="shared" si="2"/>
         <v>6.67</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>0.3</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>4</v>
       </c>
       <c r="C11" t="s">
@@ -9357,27 +9368,27 @@
       <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="7">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="7">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="7">
         <f t="shared" si="2"/>
         <v>6.67</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
         <v>0.3</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>4</v>
       </c>
       <c r="C12" t="s">
@@ -9386,27 +9397,27 @@
       <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <v>11</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="7">
         <f t="shared" si="1"/>
         <v>166</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="7">
         <f t="shared" si="2"/>
         <v>6.63</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>0.4</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <v>6</v>
       </c>
       <c r="C13" t="s">
@@ -9415,27 +9426,27 @@
       <c r="D13" t="s">
         <v>33</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <v>12</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="7">
         <f t="shared" si="0"/>
         <v>11.4</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="7">
         <f t="shared" si="1"/>
         <v>171</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="7">
         <f t="shared" si="2"/>
         <v>6.67</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>0.5</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>7</v>
       </c>
       <c r="C14" t="s">
@@ -9445,11 +9456,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>0.6</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>8</v>
       </c>
       <c r="C15" t="s">
@@ -9459,11 +9470,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>0.6</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <v>9</v>
       </c>
       <c r="C16" t="s">
@@ -9476,11 +9487,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <v>0.7</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>10</v>
       </c>
       <c r="C17" t="s">
@@ -9490,11 +9501,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
         <v>0.9</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <v>13</v>
       </c>
       <c r="C18" t="s">
@@ -9504,11 +9515,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
         <v>1</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="7">
         <v>15</v>
       </c>
       <c r="C19" t="s">
@@ -9518,11 +9529,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <v>1.2</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="7">
         <v>17</v>
       </c>
       <c r="C20" t="s">
@@ -9535,11 +9546,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
         <v>1.2</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7">
         <v>18</v>
       </c>
       <c r="C21" t="s">
@@ -9552,11 +9563,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
         <v>1.4</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="7">
         <v>21</v>
       </c>
       <c r="C22" t="s">
@@ -9566,11 +9577,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
         <v>1.4</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="7">
         <v>22</v>
       </c>
       <c r="C23" t="s">
@@ -9580,11 +9591,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
         <v>1.5</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="7">
         <v>23</v>
       </c>
       <c r="C24" t="s">
@@ -9594,11 +9605,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
         <v>1.6</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="7">
         <v>25</v>
       </c>
       <c r="C25" t="s">
@@ -9608,11 +9619,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
         <v>1.7</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="7">
         <v>25</v>
       </c>
       <c r="C26" t="s">
@@ -9622,11 +9633,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
         <v>1.7</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="7">
         <v>26</v>
       </c>
       <c r="C27" t="s">
@@ -9636,11 +9647,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
         <v>1.8</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="7">
         <v>27</v>
       </c>
       <c r="C28" t="s">
@@ -9650,11 +9661,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
         <v>1.8</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="7">
         <v>28</v>
       </c>
       <c r="C29" t="s">
@@ -9664,11 +9675,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
         <v>1.9</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="7">
         <v>29</v>
       </c>
       <c r="C30" t="s">
@@ -9678,11 +9689,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
         <v>2</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="7">
         <v>30</v>
       </c>
       <c r="C31" t="s">
@@ -9692,11 +9703,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
         <v>2.1</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="7">
         <v>32</v>
       </c>
       <c r="C32" t="s">
@@ -9706,11 +9717,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
         <v>2.4</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="7">
         <v>35</v>
       </c>
       <c r="C33" t="s">
@@ -9720,11 +9731,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
         <v>2.4</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="7">
         <v>36</v>
       </c>
       <c r="C34" t="s">
@@ -9734,11 +9745,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
         <v>2.5</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="7">
         <v>37</v>
       </c>
       <c r="C35" t="s">
@@ -9751,11 +9762,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
         <v>2.5</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="7">
         <v>38</v>
       </c>
       <c r="C36" t="s">
@@ -9765,11 +9776,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
         <v>2.8</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="7">
         <v>42</v>
       </c>
       <c r="C37" t="s">
@@ -9779,11 +9790,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
         <v>3.3</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="7">
         <v>50</v>
       </c>
       <c r="C38" t="s">
@@ -9793,11 +9804,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
         <v>3.4</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="7">
         <v>51</v>
       </c>
       <c r="C39" t="s">
@@ -9807,11 +9818,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
         <v>3.5</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="7">
         <v>53</v>
       </c>
       <c r="C40" t="s">
@@ -9824,11 +9835,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
         <v>4</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="7">
         <v>60</v>
       </c>
       <c r="C41" t="s">
@@ -9838,11 +9849,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
         <v>4</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="7">
         <v>61</v>
       </c>
       <c r="C42" t="s">
@@ -9852,11 +9863,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
         <v>4.5</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="7">
         <v>68</v>
       </c>
       <c r="C43" t="s">
@@ -9866,11 +9877,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
         <v>4.5</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="7">
         <v>68</v>
       </c>
       <c r="C44" t="s">
@@ -9880,11 +9891,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="7">
         <v>70</v>
       </c>
       <c r="C45" t="s">
@@ -9894,11 +9905,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
         <v>4.8</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="7">
         <v>73</v>
       </c>
       <c r="C46" t="s">
@@ -9908,11 +9919,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="7">
         <v>73</v>
       </c>
       <c r="C47" t="s">
@@ -9922,11 +9933,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
         <v>5.4</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="7">
         <v>80</v>
       </c>
       <c r="C48" t="s">
@@ -9936,11 +9947,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
         <v>6</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="7">
         <v>89</v>
       </c>
       <c r="C49" t="s">
@@ -9950,11 +9961,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
         <v>6</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="7">
         <v>90</v>
       </c>
       <c r="C50" t="s">
@@ -9964,11 +9975,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
         <v>6.4</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="7">
         <v>97</v>
       </c>
       <c r="C51" t="s">
@@ -9978,11 +9989,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
         <v>6.5</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="7">
         <v>97</v>
       </c>
       <c r="C52" t="s">
@@ -9995,11 +10006,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
         <v>6.6</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="7">
         <v>100</v>
       </c>
       <c r="C53" t="s">
@@ -10009,11 +10020,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
         <v>7.8</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="7">
         <v>117</v>
       </c>
       <c r="C54" t="s">
@@ -10023,11 +10034,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
         <v>7.8</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="7">
         <v>117</v>
       </c>
       <c r="C55" t="s">
@@ -10037,11 +10048,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
         <v>7.8</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="7">
         <v>118</v>
       </c>
       <c r="C56" t="s">
@@ -10051,11 +10062,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
         <v>7.9</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="7">
         <v>118</v>
       </c>
       <c r="C57" t="s">
@@ -10065,11 +10076,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
         <v>7.9</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="7">
         <v>119</v>
       </c>
       <c r="C58" t="s">
@@ -10079,11 +10090,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
         <v>8</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="7">
         <v>120</v>
       </c>
       <c r="C59" t="s">
@@ -10096,11 +10107,11 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="7">
         <v>123</v>
       </c>
       <c r="C60" t="s">
@@ -10110,11 +10121,11 @@
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="7">
         <v>123</v>
       </c>
       <c r="C61" t="s">
@@ -10124,11 +10135,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="7">
         <v>124</v>
       </c>
       <c r="C62" t="s">
@@ -10138,11 +10149,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
         <v>8.8000000000000007</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="7">
         <v>132</v>
       </c>
       <c r="C63" t="s">
@@ -10152,11 +10163,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="7">
         <v>138</v>
       </c>
       <c r="C64" t="s">
@@ -10166,11 +10177,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="7">
         <v>146</v>
       </c>
       <c r="C65" t="s">
@@ -10180,11 +10191,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
         <v>10</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="7">
         <v>150</v>
       </c>
       <c r="C66" t="s">
@@ -10194,11 +10205,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
         <v>10.1</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="7">
         <v>152</v>
       </c>
       <c r="C67" t="s">
@@ -10208,11 +10219,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="7">
         <v>153</v>
       </c>
       <c r="C68" t="s">
@@ -10222,11 +10233,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="7">
         <v>10.3</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="7">
         <v>154</v>
       </c>
       <c r="C69" t="s">
@@ -10236,11 +10247,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="7">
         <v>10.3</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="7">
         <v>155</v>
       </c>
       <c r="C70" t="s">
@@ -10253,11 +10264,11 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
         <v>10.4</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="7">
         <v>155</v>
       </c>
       <c r="C71" t="s">
@@ -10267,11 +10278,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="7">
         <v>10.5</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="7">
         <v>158</v>
       </c>
       <c r="C72" t="s">
@@ -10281,11 +10292,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="7">
         <v>10.5</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="7">
         <v>158</v>
       </c>
       <c r="C73" t="s">
@@ -10295,11 +10306,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
         <v>10.6</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="7">
         <v>160</v>
       </c>
       <c r="C74" t="s">
@@ -10312,11 +10323,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="7">
         <v>10.7</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="7">
         <v>160</v>
       </c>
       <c r="C75" t="s">
@@ -10329,11 +10340,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="7">
         <v>10.7</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="7">
         <v>160</v>
       </c>
       <c r="C76" t="s">
@@ -10346,11 +10357,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="7">
         <v>10.7</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="7">
         <v>160</v>
       </c>
       <c r="C77" t="s">
@@ -10360,11 +10371,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="7">
         <v>10.7</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="7">
         <v>161</v>
       </c>
       <c r="C78" t="s">
@@ -10374,11 +10385,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="7">
         <v>10.7</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="7">
         <v>161</v>
       </c>
       <c r="C79" t="s">
@@ -10388,11 +10399,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="7">
         <v>10.8</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="7">
         <v>162</v>
       </c>
       <c r="C80" t="s">
@@ -10402,11 +10413,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="7">
         <v>10.8</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="7">
         <v>162</v>
       </c>
       <c r="C81" t="s">
@@ -10416,11 +10427,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="7">
         <v>10.9</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="7">
         <v>163</v>
       </c>
       <c r="C82" t="s">
@@ -10430,11 +10441,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="7">
         <v>11</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="7">
         <v>166</v>
       </c>
       <c r="C83" t="s">
@@ -10444,11 +10455,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="7">
         <v>11.1</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="7">
         <v>166</v>
       </c>
       <c r="C84" t="s">
@@ -10458,11 +10469,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="7">
         <v>11.1</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="7">
         <v>167</v>
       </c>
       <c r="C85" t="s">
@@ -10475,11 +10486,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="7">
         <v>11.2</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="7">
         <v>167</v>
       </c>
       <c r="C86" t="s">
@@ -10492,11 +10503,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="7">
         <v>11.2</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="7">
         <v>168</v>
       </c>
       <c r="C87" t="s">
@@ -10509,11 +10520,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="7">
         <v>11.2</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="7">
         <v>169</v>
       </c>
       <c r="C88" t="s">
@@ -10526,11 +10537,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="7">
         <v>11.3</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="7">
         <v>170</v>
       </c>
       <c r="C89" t="s">
@@ -10543,11 +10554,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="7">
         <v>11.3</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="7">
         <v>170</v>
       </c>
       <c r="C90" t="s">
@@ -10560,11 +10571,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="7">
         <v>11.3</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="7">
         <v>170</v>
       </c>
       <c r="C91" t="s">
@@ -10577,11 +10588,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="7">
         <v>11.4</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="7">
         <v>171</v>
       </c>
       <c r="E92" t="s">
